--- a/DSC461/Project/JobDatabase.xlsx
+++ b/DSC461/Project/JobDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kefuzhu/Desktop/Github/University-of-Rochester/DSC461/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677590D5-7A7F-A945-AFBD-CC7A7BF1A817}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B242963-F9DA-BC41-A909-2295FFB581F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2940" windowWidth="24820" windowHeight="15060" xr2:uid="{018A3B3D-AA6B-D446-B88C-4C968913F8AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{018A3B3D-AA6B-D446-B88C-4C968913F8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>OfficeID</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>CHECK 'Intern' or 'FullTime</t>
+  </si>
+  <si>
+    <t>ApplicationReceived</t>
+  </si>
+  <si>
+    <t>NumberOfApplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Resource</t>
   </si>
 </sst>
 </file>
@@ -468,17 +480,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C419B8FB-10CB-A948-AFCB-FE7DFDA80280}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -612,6 +624,27 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
